--- a/Week 8 - Project Cost Estimating/homework/Wk 8 HB Cost Distribution estimating exhibit.xlsx
+++ b/Week 8 - Project Cost Estimating/homework/Wk 8 HB Cost Distribution estimating exhibit.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My contents\au 2015 Online DL program revision materials\Case related materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksey\Documents\School\UW_Project_Management\PROJECT_420\Week 8 - Project Cost Estimating\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15045" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,13 +149,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,7 +273,7 @@
     <xf numFmtId="6" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -282,16 +282,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -303,7 +303,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -318,16 +318,16 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,6 +425,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -460,6 +477,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -653,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="8">
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -710,7 +744,7 @@
       </c>
       <c r="C6" s="9">
         <f>$B$3*B6</f>
-        <v>0</v>
+        <v>34100</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="16" t="s">
@@ -732,7 +766,7 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" ref="C7:C22" si="0">$B$3*B7</f>
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="14" t="s">
@@ -743,7 +777,7 @@
       </c>
       <c r="G7" s="19">
         <f t="shared" ref="G7:G15" si="1">$C$24*F7</f>
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="19" t="str">
@@ -760,7 +794,7 @@
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="14" t="s">
@@ -771,7 +805,7 @@
       </c>
       <c r="G8" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="19" t="str">
@@ -788,7 +822,7 @@
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="14" t="s">
@@ -799,7 +833,7 @@
       </c>
       <c r="G9" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="19" t="str">
@@ -816,7 +850,7 @@
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7750</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="14" t="s">
@@ -827,7 +861,7 @@
       </c>
       <c r="G10" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7750</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="19" t="str">
@@ -844,7 +878,7 @@
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="14" t="s">
@@ -855,7 +889,7 @@
       </c>
       <c r="G11" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7750</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="19" t="str">
@@ -872,7 +906,7 @@
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="14" t="s">
@@ -883,7 +917,7 @@
       </c>
       <c r="G12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="19" t="str">
@@ -900,7 +934,7 @@
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7750</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="14" t="s">
@@ -911,7 +945,7 @@
       </c>
       <c r="G13" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="19" t="str">
@@ -928,7 +962,7 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7750</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="14" t="s">
@@ -939,7 +973,7 @@
       </c>
       <c r="G14" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="19" t="str">
@@ -956,7 +990,7 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7750</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="14" t="s">
@@ -967,7 +1001,7 @@
       </c>
       <c r="G15" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="19" t="str">
@@ -984,7 +1018,7 @@
       </c>
       <c r="C16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7750</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="14"/>
@@ -1002,7 +1036,7 @@
       </c>
       <c r="C17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="16" t="s">
@@ -1014,7 +1048,7 @@
       </c>
       <c r="G17" s="19">
         <f>SUM(G7:G15)</f>
-        <v>0</v>
+        <v>91450</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="19">
@@ -1031,7 +1065,7 @@
       </c>
       <c r="C18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4650</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1049,7 +1083,7 @@
       </c>
       <c r="C19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10850.000000000002</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1067,7 +1101,7 @@
       </c>
       <c r="C20" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1085,7 +1119,7 @@
       </c>
       <c r="C21" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17050</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1103,7 +1137,7 @@
       </c>
       <c r="C22" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4650</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1133,7 +1167,7 @@
       </c>
       <c r="C24" s="24">
         <f>SUM(C6:C22)</f>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1165,7 +1199,7 @@
       <c r="B26" s="25"/>
       <c r="C26" s="26">
         <f>SUM(C24:C25)</f>
-        <v>0</v>
+        <v>155000</v>
       </c>
       <c r="D26" s="3"/>
     </row>
